--- a/biology/Zoologie/Dosidicus_gigas/Dosidicus_gigas.xlsx
+++ b/biology/Zoologie/Dosidicus_gigas/Dosidicus_gigas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dosidicus gigas, l’Encornet géant, parfois appelé Diable des profondeurs ou Calmar de Humboldt, est une espèce de calmars, la seule connue du genre Dosidicus.  C'est la plus grande espèce connue d'ommastrephidés mais non le plus grand calmar (il est dépassé par ceux du genre Architeuthis qui sont rares, mais qu'on a trouvés dans tous les océans terrestres, sauf peut être sous les glaces polaires).
-Après que ce calmar eut reçu son nom scientifique, on en a trouvé d'autres qui pouvaient aussi dépasser 1 m de long pour le manteau (cranchiidé de l'Antarctique[1], l'onychoteuthidé de l'Antarctique Kondakovia longimana, l'onychoteuthidé du Pacifique Moroteuthis robusta et le Taningia danae[2] qu'on a trouvé dans tous les océans). Néanmoins, notamment dans les profondeurs et dans le courant de Humboldt, sur les côtes sud-américaines du Pacifique, l'encornet géant peut atteindre 4 mètres de long et peser jusqu'à 400 kg (son manteau dépasse toutefois rarement 1 m).
+Après que ce calmar eut reçu son nom scientifique, on en a trouvé d'autres qui pouvaient aussi dépasser 1 m de long pour le manteau (cranchiidé de l'Antarctique, l'onychoteuthidé de l'Antarctique Kondakovia longimana, l'onychoteuthidé du Pacifique Moroteuthis robusta et le Taningia danae qu'on a trouvé dans tous les océans). Néanmoins, notamment dans les profondeurs et dans le courant de Humboldt, sur les côtes sud-américaines du Pacifique, l'encornet géant peut atteindre 4 mètres de long et peser jusqu'à 400 kg (son manteau dépasse toutefois rarement 1 m).
 Ces encornets sont l'une des sources d'alimentation des phoques et des cachalots et de divers oiseaux marins (Clarke, 1996).
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Répartition, habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce rarement visible en surface[3] est connue dans le Pacifique Est, à partir de 35° de latitude nord, du large de la Californie au sud du Chili et vers l'ouest jusque dans les Tropiques jusqu'à environ 120° de longitude ouest. Il vit surtout au large des plateaux et semble-t-il parfois à grande profondeur. C'est l'une des rares espèces de calmars qui ne soit pas inféodée à des systèmes de courants rapides des bordures de plateaux continentaux, et on la rencontre jusque dans le courant froid du Pérou (courant de Humboldt) qui est faible et s'écoule lentement vers le nord, dans le Pacifique Sud-Est. Devant les fonds péruviens, Dosidicus gigas ne semble pas attiré par les zones les plus riches en productivité primaire, mais leur préférer des zones mésopélagiques où il mange essentiellement des poissons sur le rebord du plateau continental de l'Amérique du Sud[4]. Ailleurs on sait qu'ils consomment aussi des myctophidés (Rodhouse et Nigmatullin, 1996), lesquels sont abondants dans l'océan Indien (nord de la mer d'Arabie) (Shotton, 1997) et dans la zone antarctique de l'Atlantique-sud où ils sont aussi mangés par d'autres ommastrephidés Sthenoteuthis oualaniensis et Martialia hyadesii.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce rarement visible en surface est connue dans le Pacifique Est, à partir de 35° de latitude nord, du large de la Californie au sud du Chili et vers l'ouest jusque dans les Tropiques jusqu'à environ 120° de longitude ouest. Il vit surtout au large des plateaux et semble-t-il parfois à grande profondeur. C'est l'une des rares espèces de calmars qui ne soit pas inféodée à des systèmes de courants rapides des bordures de plateaux continentaux, et on la rencontre jusque dans le courant froid du Pérou (courant de Humboldt) qui est faible et s'écoule lentement vers le nord, dans le Pacifique Sud-Est. Devant les fonds péruviens, Dosidicus gigas ne semble pas attiré par les zones les plus riches en productivité primaire, mais leur préférer des zones mésopélagiques où il mange essentiellement des poissons sur le rebord du plateau continental de l'Amérique du Sud. Ailleurs on sait qu'ils consomment aussi des myctophidés (Rodhouse et Nigmatullin, 1996), lesquels sont abondants dans l'océan Indien (nord de la mer d'Arabie) (Shotton, 1997) et dans la zone antarctique de l'Atlantique-sud où ils sont aussi mangés par d'autres ommastrephidés Sthenoteuthis oualaniensis et Martialia hyadesii.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux longs tentacules rétractiles s'ajoutent à une couronne de huit bras armés de puissantes ventouses permettant d'immobiliser des proies importantes.
 Portées à l'orifice buccal situé au cœur de la couronne, les victimes sont broyées par un puissant "bec de perroquet".
@@ -579,13 +595,15 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écologie et le comportement de ce calmar sont encore mal connus. Remontant des abysses, il attaque de grosses proies dont les thons (et peut-être des légines) par surprise, les avalant entiers, sauf la tête, après les avoir capturés avec deux longs tentacules.
 Tous les calmars sont réputés migrateurs et potentiellement cannibales quand ils manquent de nourriture.
 En dépit d'une remarquable adaptation au milieu marin, de leurs tentacules presque aussi adroits que des mains humaines et d'un « cerveau » relativement complexe, les céphalopodes ne sont pas devenus les maîtres de la mer. Si ce sont des animaux qui grandissent inhabituellement vite, leur espérance moyenne de vie ne dépasse guère trois ans. Ils ont de nombreux prédateurs, dont l'Homme.
 Par ailleurs, malgré des muscles puissants et trois cœurs vigoureux, ils n'ont aucune endurance. Deux de leurs cœurs irriguant uniquement leur système branchial. Cette faiblesse tiendrait à leur sang bleu-vert qui transporte l'oxygène sur du cuivre oxydé et non sur du fer comme chez les mammifères, ce qui les rend moins performants.
-Ces calmars auraient la faculté de se déplacer en pleine mer hors de l'eau en utilisant leurs nageoires et tentacules comme ailes et leur siphon comme propulseur, de même sans doute que d'autres espèces telles Sthenoteuthis pteropus et Illex illecebrosus[5], ainsi que Ommastrephes bartramii[6].
+Ces calmars auraient la faculté de se déplacer en pleine mer hors de l'eau en utilisant leurs nageoires et tentacules comme ailes et leur siphon comme propulseur, de même sans doute que d'autres espèces telles Sthenoteuthis pteropus et Illex illecebrosus, ainsi que Ommastrephes bartramii.
 </t>
         </is>
       </c>
@@ -614,7 +632,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce calmar dit "géant" est l'un des lointains descendants des mollusques primitifs à lourde coquille qui vivaient il y a plus quatre cent cinquante millions d'années et dont sont issus tous les céphalopodes.
 </t>
@@ -645,11 +665,13 @@
           <t>État des populations, menaces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Face à la surpêche qui a généré une régression ou disparition des stocks de poissons traditionnellement pêchés, une partie de l'effort de pêche s'est reportée sur les calmars et, notamment depuis les années 1980-1990, sur cette espèce qui est l'une de celles qui font l'objet (en Nouvelle-Zélande) d'une forme de pêche industrielle inspirée de la pêche traditionnelle au lamparo (les autres étant Todarodes pacificus et Ommastrephes bartrami, surtout pêché au Japon, alors qu'en Nouvelle-Zélande, ce sont  les calmars Nototodarus sloanii  qu'on attire de nuit avec la lumière artificielle. En Atlantique du Sud-Ouest, on pêche de la même manière une autre espèce, Illex argentinus).
 Une hypothèse est que la surpêche pourrait avoir au moins localement favorisé (par diminution de la prédation sur les jeunes calmars) une augmentation d'abondance et de captures de calmars (Caddy et Rodhouse, 1998).
-En 2007 et en 2009, ces calmars ont envahi les eaux californiennes, s'attaquant à toutes les proies passant près d'eux. Les humains n'ont pas été épargnés[7].
+En 2007 et en 2009, ces calmars ont envahi les eaux californiennes, s'attaquant à toutes les proies passant près d'eux. Les humains n'ont pas été épargnés.
 </t>
         </is>
       </c>
@@ -678,7 +700,9 @@
           <t>Pêche</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La pêche de D. gigas était dans les années 1990-2000 surtout pratiquée au large du Pérou et près du dôme du Costa Rica, au large de l'Amérique centrale. Au Pérou, cette espèce fut pêchée par les indigènes pour faire des sacrifices aux dieux locaux.[réf. nécessaire]
 </t>
